--- a/medicine/Sexualité et sexologie/Jean-Claude_Piquard/Jean-Claude_Piquard.xlsx
+++ b/medicine/Sexualité et sexologie/Jean-Claude_Piquard/Jean-Claude_Piquard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Claude Piquard  né le 29 mars 1952 à Sèvres (Seine) est un ergothérapeute, sexologue et essayiste.
 </t>
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Claude Piquard est ergothérapeute et vit près de Montpellier.
-Il enseigne à l’Institut de formation en ergothérapie de Montpellier[1].
-À partir de 2002,  il propose une définition de l’orgasme dans son premier livre : Les deux extases sexuelles, la jouissance et l’orgasme. En 2006, il suit la formation de sexologue clinicien à la Faculté de médecine de Montpellier[2], puis ouvre une consultation à Montpellier.
-Durant cette formation, Jean-Claude Piquard fait un constat : point de clitoris, ni dans les cours, ni dans les congrès[3] ! 
-Il recherche alors l’origine de ce qu'il nomme "l'obscurantisme clitoridien"[4]  et la synthétise dans son deuxième livre : La fabuleuse histoire du clitoris[5]. L'ouvrage est la première tentative de synthèse historique et scientifique sur le clitoris[6].
-Lors de la journée de l'orgasme 2014, Jean-Claude Piquard et la sexologue Marie-Noëlle Lanuit, lancent une expérience scientifique dont le but est de mesurer la fréquence cardiaque lors de l'orgasme. Près de deux cents participants se sont branchés ce soir-là à un cardiofréquencemètre pendant leurs rapports sexuels pour mesurer la fluctuation de leur rythme cardiaque[7].
-En 2018 sort son troisième ouvrage: Du bon usage du sexe, une enquête originale qui démontre comment la politique, l’économie, et la religion se sont glissées dans le lit des Français[8].
+Il enseigne à l’Institut de formation en ergothérapie de Montpellier.
+À partir de 2002,  il propose une définition de l’orgasme dans son premier livre : Les deux extases sexuelles, la jouissance et l’orgasme. En 2006, il suit la formation de sexologue clinicien à la Faculté de médecine de Montpellier, puis ouvre une consultation à Montpellier.
+Durant cette formation, Jean-Claude Piquard fait un constat : point de clitoris, ni dans les cours, ni dans les congrès ! 
+Il recherche alors l’origine de ce qu'il nomme "l'obscurantisme clitoridien"  et la synthétise dans son deuxième livre : La fabuleuse histoire du clitoris. L'ouvrage est la première tentative de synthèse historique et scientifique sur le clitoris.
+Lors de la journée de l'orgasme 2014, Jean-Claude Piquard et la sexologue Marie-Noëlle Lanuit, lancent une expérience scientifique dont le but est de mesurer la fréquence cardiaque lors de l'orgasme. Près de deux cents participants se sont branchés ce soir-là à un cardiofréquencemètre pendant leurs rapports sexuels pour mesurer la fluctuation de leur rythme cardiaque.
+En 2018 sort son troisième ouvrage: Du bon usage du sexe, une enquête originale qui démontre comment la politique, l’économie, et la religion se sont glissées dans le lit des Français.
 </t>
         </is>
       </c>
@@ -548,11 +562,13 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2006 - Les deux extases sexuelles, la jouissance et l’orgasme, éd Presses libres
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2006 - Les deux extases sexuelles, la jouissance et l’orgasme, éd Presses libres
 2013 - La fabuleuse histoire du clitoris  (préf. Julie Muret), Saint-Martin-de-Londres, H&amp;O, coll. « Au féminin », 9 novembre 2013, 188 p. (ISBN 978-2-84547-265-5)
-2018 - Du bon usage du sexe , éd H&amp;O  [9]</t>
+2018 - Du bon usage du sexe , éd H&amp;O  </t>
         </is>
       </c>
     </row>
@@ -580,9 +596,11 @@
           <t>Articles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Où en sommes-nous de la révolution sexuelle[10] ?</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Où en sommes-nous de la révolution sexuelle ?</t>
         </is>
       </c>
     </row>
@@ -610,9 +628,11 @@
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le Clitoris, court métrage d'animation de Lori-Malépart Traversy inspiré de l'œuvre de Jean-Claude Piquard “La Fabuleuse Histoire du Clitoris” [11]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Clitoris, court métrage d'animation de Lori-Malépart Traversy inspiré de l'œuvre de Jean-Claude Piquard “La Fabuleuse Histoire du Clitoris” </t>
         </is>
       </c>
     </row>
